--- a/tools/caat-helper/src/data/excel/SIerData_template.xlsx
+++ b/tools/caat-helper/src/data/excel/SIerData_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Old_data\Downloads\temp_delete\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50120i1112\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA358DBD-30D2-4DE3-B8AD-3423C8103A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4AEAB9-967A-4C42-AB18-186A2C59973B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>device_name</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>admin_password</t>
+  </si>
+  <si>
+    <t>facility_prefecture</t>
+  </si>
+  <si>
+    <t>facility_municipality</t>
   </si>
 </sst>
 </file>
@@ -471,7 +477,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -547,8 +553,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="3" bestFit="1" customWidth="1"/>
@@ -615,7 +621,7 @@
   <cols>
     <col min="1" max="1" width="16.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="100.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,13 +671,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -815,20 +820,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,71 +851,77 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -918,4 +931,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{1f8e20e6-048a-4bad-a26b-318dd1cd4d47}" enabled="1" method="Privileged" siteId="{66c65d8a-9158-4521-a2d8-664963db48e4}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/tools/caat-helper/src/data/excel/SIerData_template.xlsx
+++ b/tools/caat-helper/src/data/excel/SIerData_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50120i1112\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4AEAB9-967A-4C42-AB18-186A2C59973B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F29A66E-32B9-4A34-98DC-BDF5B310C841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>device_name</t>
   </si>
@@ -511,30 +511,34 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
   </sheetData>
@@ -549,7 +553,9 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -613,18 +619,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -634,23 +641,26 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -665,9 +675,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -677,9 +687,10 @@
     <col min="4" max="4" width="33.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -701,8 +712,11 @@
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -711,7 +725,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -720,7 +734,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -729,7 +743,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -738,7 +752,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -747,7 +761,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -756,7 +770,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -765,7 +779,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -774,7 +788,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -783,7 +797,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -792,7 +806,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -801,7 +815,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -820,9 +834,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -833,9 +849,10 @@
     <col min="5" max="5" width="18.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,71 +874,74 @@
       <c r="G1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
